--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Lama1</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lama1</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.02283333333333333</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H2">
-        <v>0.06850000000000001</v>
+        <v>1.018678</v>
       </c>
       <c r="I2">
-        <v>0.05477178157813095</v>
+        <v>0.6166145092460882</v>
       </c>
       <c r="J2">
-        <v>0.05477178157813096</v>
+        <v>0.6166145092460882</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>3.505579229111111</v>
+        <v>49.47404772518356</v>
       </c>
       <c r="R2">
-        <v>31.550213062</v>
+        <v>445.2664295266521</v>
       </c>
       <c r="S2">
-        <v>0.01737474272167511</v>
+        <v>0.1767178799311352</v>
       </c>
       <c r="T2">
-        <v>0.01737474272167512</v>
+        <v>0.1767178799311352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.02283333333333333</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H3">
-        <v>0.06850000000000001</v>
+        <v>1.018678</v>
       </c>
       <c r="I3">
-        <v>0.05477178157813095</v>
+        <v>0.6166145092460882</v>
       </c>
       <c r="J3">
-        <v>0.05477178157813096</v>
+        <v>0.6166145092460882</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>3.854259877555556</v>
+        <v>57.31751450435823</v>
       </c>
       <c r="R3">
-        <v>34.688338898</v>
+        <v>515.857630539224</v>
       </c>
       <c r="S3">
-        <v>0.01910291263677506</v>
+        <v>0.2047342013007831</v>
       </c>
       <c r="T3">
-        <v>0.01910291263677506</v>
+        <v>0.2047342013007831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.02283333333333333</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H4">
-        <v>0.06850000000000001</v>
+        <v>1.018678</v>
       </c>
       <c r="I4">
-        <v>0.05477178157813095</v>
+        <v>0.6166145092460882</v>
       </c>
       <c r="J4">
-        <v>0.05477178157813096</v>
+        <v>0.6166145092460882</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>2.136347700166667</v>
+        <v>43.50643166117689</v>
       </c>
       <c r="R4">
-        <v>19.2271293015</v>
+        <v>391.557884950592</v>
       </c>
       <c r="S4">
-        <v>0.01058840471959611</v>
+        <v>0.1554019676990857</v>
       </c>
       <c r="T4">
-        <v>0.01058840471959611</v>
+        <v>0.1554019676990857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.02283333333333333</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H5">
-        <v>0.06850000000000001</v>
+        <v>1.018678</v>
       </c>
       <c r="I5">
-        <v>0.05477178157813095</v>
+        <v>0.6166145092460882</v>
       </c>
       <c r="J5">
-        <v>0.05477178157813096</v>
+        <v>0.6166145092460882</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>1.554729049444445</v>
+        <v>22.32978814452066</v>
       </c>
       <c r="R5">
-        <v>13.992561445</v>
+        <v>200.968093300686</v>
       </c>
       <c r="S5">
-        <v>0.007705721500084671</v>
+        <v>0.0797604603150843</v>
       </c>
       <c r="T5">
-        <v>0.007705721500084672</v>
+        <v>0.0797604603150843</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3395593333333333</v>
+        <v>0.211124</v>
       </c>
       <c r="H6">
-        <v>1.018678</v>
+        <v>0.633372</v>
       </c>
       <c r="I6">
-        <v>0.8145227578751427</v>
+        <v>0.3833854907539118</v>
       </c>
       <c r="J6">
-        <v>0.8145227578751428</v>
+        <v>0.3833854907539118</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>52.13221077302844</v>
+        <v>30.76092401700534</v>
       </c>
       <c r="R6">
-        <v>469.1898969572559</v>
+        <v>276.8483161530481</v>
       </c>
       <c r="S6">
-        <v>0.2583834768792783</v>
+        <v>0.109875895079449</v>
       </c>
       <c r="T6">
-        <v>0.2583834768792783</v>
+        <v>0.109875895079449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3395593333333333</v>
+        <v>0.211124</v>
       </c>
       <c r="H7">
-        <v>1.018678</v>
+        <v>0.633372</v>
       </c>
       <c r="I7">
-        <v>0.8145227578751427</v>
+        <v>0.3833854907539118</v>
       </c>
       <c r="J7">
-        <v>0.8145227578751428</v>
+        <v>0.3833854907539118</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
-        <v>57.31751450435823</v>
+        <v>35.63766842579734</v>
       </c>
       <c r="R7">
-        <v>515.857630539224</v>
+        <v>320.7390158321761</v>
       </c>
       <c r="S7">
-        <v>0.2840834575037189</v>
+        <v>0.1272952891358011</v>
       </c>
       <c r="T7">
-        <v>0.2840834575037189</v>
+        <v>0.1272952891358011</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3395593333333333</v>
+        <v>0.211124</v>
       </c>
       <c r="H8">
-        <v>1.018678</v>
+        <v>0.633372</v>
       </c>
       <c r="I8">
-        <v>0.8145227578751427</v>
+        <v>0.3833854907539118</v>
       </c>
       <c r="J8">
-        <v>0.8145227578751428</v>
+        <v>0.3833854907539118</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>31.77007886876467</v>
+        <v>27.05050627784534</v>
       </c>
       <c r="R8">
-        <v>285.930709818882</v>
+        <v>243.454556500608</v>
       </c>
       <c r="S8">
-        <v>0.1574624079262587</v>
+        <v>0.0966225392965248</v>
       </c>
       <c r="T8">
-        <v>0.1574624079262587</v>
+        <v>0.0966225392965248</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3395593333333333</v>
+        <v>0.211124</v>
       </c>
       <c r="H9">
-        <v>1.018678</v>
+        <v>0.633372</v>
       </c>
       <c r="I9">
-        <v>0.8145227578751427</v>
+        <v>0.3833854907539118</v>
       </c>
       <c r="J9">
-        <v>0.8145227578751428</v>
+        <v>0.3833854907539118</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>23.12070479751778</v>
+        <v>13.883742042796</v>
       </c>
       <c r="R9">
-        <v>208.08634317766</v>
+        <v>124.953678385164</v>
       </c>
       <c r="S9">
-        <v>0.1145934155658869</v>
+        <v>0.04959176724213694</v>
       </c>
       <c r="T9">
-        <v>0.1145934155658869</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.05448866666666666</v>
-      </c>
-      <c r="H10">
-        <v>0.163466</v>
-      </c>
-      <c r="I10">
-        <v>0.1307054605467263</v>
-      </c>
-      <c r="J10">
-        <v>0.1307054605467264</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>153.5290173333333</v>
-      </c>
-      <c r="N10">
-        <v>460.587052</v>
-      </c>
-      <c r="O10">
-        <v>0.3172206968818489</v>
-      </c>
-      <c r="P10">
-        <v>0.3172206968818489</v>
-      </c>
-      <c r="Q10">
-        <v>8.365591449136888</v>
-      </c>
-      <c r="R10">
-        <v>75.29032304223199</v>
-      </c>
-      <c r="S10">
-        <v>0.04146247728089553</v>
-      </c>
-      <c r="T10">
-        <v>0.04146247728089554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.05448866666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.163466</v>
-      </c>
-      <c r="I11">
-        <v>0.1307054605467263</v>
-      </c>
-      <c r="J11">
-        <v>0.1307054605467264</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>168.7997026666667</v>
-      </c>
-      <c r="N11">
-        <v>506.3991080000001</v>
-      </c>
-      <c r="O11">
-        <v>0.3487728915577651</v>
-      </c>
-      <c r="P11">
-        <v>0.348772891557765</v>
-      </c>
-      <c r="Q11">
-        <v>9.197670732036446</v>
-      </c>
-      <c r="R11">
-        <v>82.77903658832801</v>
-      </c>
-      <c r="S11">
-        <v>0.04558652141727113</v>
-      </c>
-      <c r="T11">
-        <v>0.04558652141727113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.05448866666666666</v>
-      </c>
-      <c r="H12">
-        <v>0.163466</v>
-      </c>
-      <c r="I12">
-        <v>0.1307054605467263</v>
-      </c>
-      <c r="J12">
-        <v>0.1307054605467264</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>93.562673</v>
-      </c>
-      <c r="N12">
-        <v>280.688019</v>
-      </c>
-      <c r="O12">
-        <v>0.1933186106880956</v>
-      </c>
-      <c r="P12">
-        <v>0.1933186106880956</v>
-      </c>
-      <c r="Q12">
-        <v>5.098105301539333</v>
-      </c>
-      <c r="R12">
-        <v>45.882947713854</v>
-      </c>
-      <c r="S12">
-        <v>0.02526779804224083</v>
-      </c>
-      <c r="T12">
-        <v>0.02526779804224083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.05448866666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.163466</v>
-      </c>
-      <c r="I13">
-        <v>0.1307054605467263</v>
-      </c>
-      <c r="J13">
-        <v>0.1307054605467264</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>68.09032333333334</v>
-      </c>
-      <c r="N13">
-        <v>204.27097</v>
-      </c>
-      <c r="O13">
-        <v>0.1406878008722904</v>
-      </c>
-      <c r="P13">
-        <v>0.1406878008722904</v>
-      </c>
-      <c r="Q13">
-        <v>3.710150931335556</v>
-      </c>
-      <c r="R13">
-        <v>33.39135838202001</v>
-      </c>
-      <c r="S13">
-        <v>0.01838866380631884</v>
-      </c>
-      <c r="T13">
-        <v>0.01838866380631885</v>
+        <v>0.04959176724213694</v>
       </c>
     </row>
   </sheetData>
